--- a/iselUssSyncV2/OutputWSL/20220517_1301_D60L474W90Q10U0.20H63.8G2_S_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220517_1301_D60L474W90Q10U0.20H63.8G2_S_DATA.xlsx
@@ -127,7 +127,7 @@
     <t>caseStr</t>
   </si>
   <si>
-    <t>2B</t>
+    <t>kA</t>
   </si>
   <si>
     <t>Ftotal</t>
@@ -351,14 +351,16 @@
         <v>0.063925700508892361</v>
       </c>
       <c r="G2" s="0">
-        <v>0.068829043824701189</v>
-      </c>
-      <c r="H2" s="0"/>
+        <v>0.067922654145323405</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.0058688888888888185</v>
+      </c>
       <c r="I2" s="0">
         <v>0.028031506251178121</v>
       </c>
       <c r="J2" s="0">
-        <v>0.022388127490039843</v>
+        <v>0.019691474103585661</v>
       </c>
       <c r="K2" s="0">
         <v>0.002</v>
@@ -406,7 +408,7 @@
         <v>0.25004902261126372</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.75294964103111339</v>
+        <v>0.91279918709950303</v>
       </c>
       <c r="AA2" s="0">
         <v>0.22008487799234258</v>
@@ -426,21 +428,17 @@
       <c r="AF2" s="0">
         <v>2.9217110403526121</v>
       </c>
-      <c r="AG2" s="0">
-        <v>7.3316644249742486</v>
-      </c>
+      <c r="AG2" s="0"/>
       <c r="AH2" s="0">
         <v>7.7883004129810889</v>
       </c>
       <c r="AI2" s="0">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="AJ2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="0">
-        <v>10.253375465326862</v>
-      </c>
+      <c r="AK2" s="0"/>
     </row>
   </sheetData>
 </worksheet>
